--- a/Fourth Semester/static and probability/lab3/lab3.xlsx
+++ b/Fourth Semester/static and probability/lab3/lab3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER-WIN10\Documents\GitHub\BCE\Fourth Semester\static and probability\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E7B312-5E3D-4654-875C-4A9F8A743D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +185,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -303,6 +313,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C2-4AA1-90CF-5C03F4C51F91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -362,7 +377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -480,7 +494,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -597,7 +610,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -815,9 +828,13 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DB9-4202-A051-28FB0F244D11}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -875,7 +892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -993,7 +1009,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2238,7 +2253,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2273,7 +2294,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2553,7 +2580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2649,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2959,10 +2986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3179,11 +3206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
